--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney_Login.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney_Login.xlsx
@@ -54,9 +54,6 @@
     <t>rana3050</t>
   </si>
   <si>
-    <t>dollar</t>
-  </si>
-  <si>
     <t>AutomatePSDY</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>When user id and password are valid Send Money Bene_Sch_SI</t>
+  </si>
+  <si>
+    <t>dollar123</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -523,7 +523,7 @@
         <v>12345678</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -531,7 +531,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -540,7 +540,7 @@
         <v>12345678</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -557,7 +557,7 @@
         <v>12345678</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -565,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -574,15 +574,15 @@
         <v>12345678</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -591,15 +591,15 @@
         <v>12345678</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -608,12 +608,12 @@
         <v>12345678</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -625,15 +625,15 @@
         <v>12345678</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -642,15 +642,15 @@
         <v>12345678</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -659,15 +659,15 @@
         <v>12345678</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -676,15 +676,15 @@
         <v>12345678</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -693,15 +693,15 @@
         <v>12345678</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -710,15 +710,15 @@
         <v>12345678</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -727,15 +727,15 @@
         <v>12345678</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -744,15 +744,15 @@
         <v>12345678</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -761,15 +761,15 @@
         <v>12345678</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -778,15 +778,15 @@
         <v>12345678</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -795,15 +795,15 @@
         <v>12345678</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -812,15 +812,15 @@
         <v>12345678</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -829,15 +829,15 @@
         <v>12345678</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -846,7 +846,7 @@
         <v>12345678</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
